--- a/機能検討フェーズ/機能検討.xlsx
+++ b/機能検討フェーズ/機能検討.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecon\Desktop\起業検討\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fecon\Desktop\起業検討\forAnotherStart\forAnotherStart\機能検討フェーズ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39EB32A0-BEB2-4C22-BD69-63188D82D39A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA47E094-2EB3-4B4B-BDB9-0B65EEAE0416}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{0FC26716-7933-4C8A-8501-EE7A8215DDD6}"/>
   </bookViews>
   <sheets>
     <sheet name="基本機能検討" sheetId="1" r:id="rId1"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId2"/>
+  </externalReferences>
   <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,8 +32,45 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>福田純也</author>
+  </authors>
+  <commentList>
+    <comment ref="AF21" authorId="0" shapeId="0" xr:uid="{412FED1D-DD07-4CD3-AE36-03463929EB37}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t>福田純也:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="MS P ゴシック"/>
+            <family val="3"/>
+            <charset val="128"/>
+          </rPr>
+          <t xml:space="preserve">
+次の打ち合わせはこの中で優先度を決めて、どれをメインでやるかを考える＋追加で考えた機能を話し合う
+次の次では機能の詳細について話し合う。</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="109">
   <si>
     <t>基本機能検討</t>
     <rPh sb="0" eb="2">
@@ -754,13 +794,225 @@
       <t>ミ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1. Trailing stop loss</t>
+  </si>
+  <si>
+    <t>自動に設定されたPLや値段になったら売る</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2. Social Trading </t>
+  </si>
+  <si>
+    <t>snsでのソースを使った取引</t>
+  </si>
+  <si>
+    <t>3. Mirror Trading</t>
+  </si>
+  <si>
+    <t>シグナルを発信する人の取引をそのまま真似する</t>
+  </si>
+  <si>
+    <t>4. Strategy Trading</t>
+  </si>
+  <si>
+    <t>戦略を組んでそのまま取引する</t>
+  </si>
+  <si>
+    <t>5. Simulation</t>
+  </si>
+  <si>
+    <t>ストラテージやミラートレーディングのシミュレーション</t>
+  </si>
+  <si>
+    <t>6. Backtesting</t>
+  </si>
+  <si>
+    <t>ストラテージやミラートレーディングなどがバックテストできる</t>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分類</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>説明</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ターゲット</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>シミュレーション機能</t>
+  </si>
+  <si>
+    <t>取引のシミュレーション</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>売買をシミュレーションする</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>新規参加者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>売買経験がない人がリスクを冒さず、体験ができるため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保有資産のシミュレーション</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>保有資産をそのまま保持している場合の損益をシミュレーションする</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>中級以上の利用者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>バックテストみたいな感じかな</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>過去データでのシミュレーション</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>シミュレーション環境が過去の市場状況</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>シミュレーションの環境を設定することで、色んな環境でのテストができるため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>仮想データでシミュレーション</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>シミュレーション環境が仮想の市場状況</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>現在データでシミュレーション</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>シミュレーション環境が現在の市場状況</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>自動売買機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>特定の条件に基づいた売買</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>インデックスなどに条件を付けて、その条件で売買を実行</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用者が自分で戦略を立て、「売買」だけを自動化させる</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>収益確保機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定した額以上の収益発生した場合、自動で売却してくれる機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一定の目標に達成したら売却することで、将来に対するリスクをなくすため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>損失ストップ機能</t>
+  </si>
+  <si>
+    <t>指定した額以上の損失が発生した場合、自動で売却してくれる機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>想定以上の損失が発生した場合、ポジションを処分するため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>損失防止機能</t>
+  </si>
+  <si>
+    <t>損失が見込まれる場合、自動で売却してくれる機能</t>
+  </si>
+  <si>
+    <t>リスク回避的な人</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>リスクを負いたくない人のため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>収益最大化機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある期間で収益が発生した場合、最も収益が高いと想定される時点で売却してくれる機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資産運用者</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>資産運用を任せたい人のため</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>損失最小化機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>ある期間で損失が発生した場合、その損失が最も小さくなると想定される時点で売却してくれる機能</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>機能検討</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -786,21 +1038,280 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Meiryo UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="MS P ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="17">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -809,7 +1320,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -820,6 +1331,60 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -837,6 +1402,85 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>99</xdr:col>
+      <xdr:colOff>128588</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>51196</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="図 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82F1C235-9C16-430C-81E9-570E41B6730C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="8958263" y="447675"/>
+          <a:ext cx="16416337" cy="2295525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,351 +1779,607 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1E407-0EDA-4D55-8719-40AA3B90B123}">
-  <dimension ref="A1:I76"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1ED1E407-0EDA-4D55-8719-40AA3B90B123}">
+  <dimension ref="A1:AM76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="98" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.5625" defaultRowHeight="17.649999999999999" x14ac:dyDescent="0.7"/>
+  <sheetFormatPr defaultColWidth="3.5625" defaultRowHeight="17.649999999999999"/>
   <cols>
     <col min="9" max="9" width="3.5625" customWidth="1"/>
+    <col min="34" max="34" width="4.875" bestFit="1" customWidth="1"/>
+    <col min="35" max="36" width="23.375" customWidth="1"/>
+    <col min="37" max="37" width="80.125" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.25" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="68.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:39">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="1"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:39" ht="18" thickBot="1">
       <c r="A2" s="3"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="AH2" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="AI2" s="20"/>
+    </row>
+    <row r="3" spans="1:39" ht="18.399999999999999" thickTop="1" thickBot="1">
       <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S3" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="4" spans="1:39">
       <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S4" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="AH4" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="AI4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="AJ4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="AK4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="AL4" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM4" s="6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39">
       <c r="C5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S5" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="AH5" s="7" t="str">
+        <f t="shared" ref="AH5:AH15" si="0">AF5&amp;"."&amp;AG5</f>
+        <v>.</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="AJ5" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="AK5" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="AL5" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="AM5" s="10" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:39">
       <c r="C6" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S6" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AH6" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI6" s="12"/>
+      <c r="AJ6" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="AK6" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="AL6" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM6" s="10" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39">
       <c r="B7" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S7" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH7" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI7" s="12"/>
+      <c r="AJ7" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="AK7" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AL7" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM7" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:39">
       <c r="C8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S8" t="s">
+        <v>57</v>
+      </c>
+      <c r="AH8" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI8" s="12"/>
+      <c r="AJ8" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="AK8" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL8" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM8" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:39">
       <c r="C9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S9" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH9" s="13" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI9" s="14"/>
+      <c r="AJ9" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="AK9" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="AL9" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="AM9" s="10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39">
       <c r="C10" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S10" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH10" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="AJ10" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="AM10" s="10" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="11" spans="1:39">
+      <c r="S11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AH11" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI11" s="12"/>
+      <c r="AJ11" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="AK11" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="AL11" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM11" s="10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39">
       <c r="A12" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S12" t="s">
+        <v>61</v>
+      </c>
+      <c r="AH12" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI12" s="12"/>
+      <c r="AJ12" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="AK12" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="AL12" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="AM12" s="10" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:39">
       <c r="B13" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="S13" t="s">
+        <v>62</v>
+      </c>
+      <c r="AH13" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI13" s="12"/>
+      <c r="AJ13" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="AK13" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="AL13" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="AM13" s="10" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39">
       <c r="C14" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.7">
-      <c r="C15" t="s">
+      <c r="S14" t="s">
+        <v>63</v>
+      </c>
+      <c r="AH14" s="11" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI14" s="12"/>
+      <c r="AJ14" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="AK14" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="AL14" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM14" s="10" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" ht="18" thickBot="1">
+      <c r="C15" s="19" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.7">
+      <c r="AH15" s="15" t="str">
+        <f t="shared" si="0"/>
+        <v>.</v>
+      </c>
+      <c r="AI15" s="16"/>
+      <c r="AJ15" s="17" t="s">
+        <v>106</v>
+      </c>
+      <c r="AK15" s="17" t="s">
+        <v>107</v>
+      </c>
+      <c r="AL15" s="17" t="s">
+        <v>104</v>
+      </c>
+      <c r="AM15" s="18" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:39">
       <c r="B16" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="17" spans="1:32">
       <c r="C17" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="18" spans="1:32">
       <c r="C18" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="20" spans="1:32">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:32">
       <c r="B21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="22" spans="1:32">
       <c r="C22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="23" spans="1:32">
       <c r="C23" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="24" spans="1:32">
       <c r="C24" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="25" spans="1:32">
       <c r="B25" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="26" spans="1:32">
       <c r="C26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="28" spans="1:32">
       <c r="A28" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="29" spans="1:32">
       <c r="B29" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="30" spans="1:32">
       <c r="C30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="31" spans="1:32">
       <c r="B31" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="32" spans="1:32">
       <c r="C32" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="33" spans="1:3">
       <c r="C33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="35" spans="1:3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="36" spans="1:3">
       <c r="B36" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="37" spans="1:3">
       <c r="C37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="38" spans="1:3">
       <c r="B38" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="39" spans="1:3">
       <c r="C39" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="40" spans="1:3">
       <c r="C40" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="41" spans="1:3">
       <c r="C41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="42" spans="1:3">
       <c r="C42" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="44" spans="1:3">
       <c r="A44" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="45" spans="1:3">
       <c r="B45" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="46" spans="1:3">
       <c r="C46" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="47" spans="1:3">
       <c r="C47" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="48" spans="1:3">
       <c r="C48" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="49" spans="1:3">
       <c r="B49" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="50" spans="1:3">
       <c r="C50" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="51" spans="1:3">
       <c r="C51" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="53" spans="1:3">
       <c r="A53" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="54" spans="1:3">
       <c r="B54" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="55" spans="1:3">
       <c r="C55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="56" spans="1:3">
       <c r="C56" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="57" spans="1:3">
       <c r="B57" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="58" spans="1:3">
       <c r="C58" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="59" spans="1:3">
       <c r="C59" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="60" spans="1:3">
       <c r="C60" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="62" spans="1:3">
       <c r="A62" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="63" spans="1:3">
       <c r="B63" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="64" spans="1:3">
       <c r="C64" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="65" spans="1:3">
       <c r="C65" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="66" spans="1:3">
       <c r="C66" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="67" spans="1:3">
       <c r="B67" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="68" spans="1:3">
       <c r="C68" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="69" spans="1:3">
       <c r="C69" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="71" spans="1:3">
       <c r="A71" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="72" spans="1:3">
       <c r="B72" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="73" spans="1:3">
       <c r="C73" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="74" spans="1:3">
       <c r="B74" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="75" spans="1:3">
       <c r="C75" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.7">
+    <row r="76" spans="1:3">
       <c r="C76" t="s">
         <v>51</v>
       </c>
@@ -1488,5 +2388,7 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>